--- a/CIVICS_Ghana/Database/Expanding/Concordance Matrix.xlsx
+++ b/CIVICS_Ghana/Database/Expanding/Concordance Matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\Database\Expanding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CIVICS_Ghana\Database\Expanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576B5D20-A056-4D50-8EF3-AC38C25DEB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E103095-2036-400D-A1B8-70525174FC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Agriculture</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Private Households</t>
-  </si>
-  <si>
-    <t>Others</t>
   </si>
   <si>
     <t>Re-export &amp; Re-import</t>
@@ -286,12 +283,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -306,9 +309,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,177 +634,180 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B128D3-0D2A-4987-9C35-519F4FC4CCEF}">
   <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB30" sqref="AB30"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BE1" sqref="BE1:BE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>64</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>65</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>66</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>67</v>
       </c>
       <c r="AS1" t="s">
         <v>13</v>
       </c>
       <c r="AT1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU1" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>69</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>74</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>75</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>76</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>77</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.3">
@@ -2160,343 +2170,343 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="1">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="1">
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4882,7 +4892,7 @@
     </row>
     <row r="26" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -5052,7 +5062,7 @@
     </row>
     <row r="27" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>

--- a/CIVICS_Ghana/Database/Expanding/Concordance Matrix.xlsx
+++ b/CIVICS_Ghana/Database/Expanding/Concordance Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\CIVICS_Ghana\Database\Expanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E103095-2036-400D-A1B8-70525174FC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587EF643-5DE0-413D-A1DF-F4647F729B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16740" yWindow="5085" windowWidth="17280" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B128D3-0D2A-4987-9C35-519F4FC4CCEF}">
   <dimension ref="A1:BD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE1" sqref="BE1:BE1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
